--- a/criterios_por_tipo.xlsx
+++ b/criterios_por_tipo.xlsx
@@ -532,7 +532,7 @@
         <v>45.82</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>99.45</v>
       </c>
       <c r="H2" t="n">
         <v>85.64</v>
@@ -544,7 +544,7 @@
         <v>45.36</v>
       </c>
       <c r="K2" t="n">
-        <v>100</v>
+        <v>11.13</v>
       </c>
       <c r="L2" t="n">
         <v>10.81</v>
@@ -553,7 +553,7 @@
         <v>57.21</v>
       </c>
       <c r="N2" t="n">
-        <v>100</v>
+        <v>8.65</v>
       </c>
       <c r="O2" t="n">
         <v>70.98999999999999</v>
@@ -596,7 +596,7 @@
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L3" t="n">
         <v>50</v>
@@ -605,7 +605,7 @@
         <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O3" t="n">
         <v>50</v>
@@ -636,7 +636,7 @@
         <v>37.23</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="H4" t="n">
         <v>92.41</v>
@@ -648,7 +648,7 @@
         <v>14.31</v>
       </c>
       <c r="K4" t="n">
-        <v>100</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="L4" t="n">
         <v>6.57</v>
@@ -657,7 +657,7 @@
         <v>21.9</v>
       </c>
       <c r="N4" t="n">
-        <v>100</v>
+        <v>5.99</v>
       </c>
       <c r="O4" t="n">
         <v>71.23999999999999</v>
@@ -688,7 +688,7 @@
         <v>58.33</v>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
+        <v>83.33</v>
       </c>
       <c r="H5" t="n">
         <v>100</v>
@@ -700,7 +700,7 @@
         <v>16.67</v>
       </c>
       <c r="K5" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L5" t="n">
         <v>16.67</v>
@@ -709,7 +709,7 @@
         <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>100</v>
+        <v>16.67</v>
       </c>
       <c r="O5" t="n">
         <v>16.67</v>
